--- a/biology/Médecine/Dyskinésie_non_kinésigénique_paroxystique/Dyskinésie_non_kinésigénique_paroxystique.xlsx
+++ b/biology/Médecine/Dyskinésie_non_kinésigénique_paroxystique/Dyskinésie_non_kinésigénique_paroxystique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dyskin%C3%A9sie_non_kin%C3%A9sig%C3%A9nique_paroxystique</t>
+          <t>Dyskinésie_non_kinésigénique_paroxystique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dyskinésie non kinésigénique paroxystique est une maladie génétique se caractérisant par des mouvements involontaires uni ou bilatéraux. Ces mouvements sont provoqués par l'ingestion de café, de thé, d'alcool ou de chocolat. Le stress ou l'excitation sont aussi des facteurs déclenchants. Les mouvements sont des dystonies posturales, des mouvements très violents de projection et de torsion des membres et touchant habituellement un seul membre supérieur (hémiballisme)et parfois précédés d'aura.
 Ces mouvements n'apparaissent pas pendant le sommeil et ne s'accompagnent pas d'épilepsie.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dyskin%C3%A9sie_non_kin%C3%A9sig%C3%A9nique_paroxystique</t>
+          <t>Dyskinésie_non_kinésigénique_paroxystique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène MR1 (en) 609023 situé sur le chromosome 2 codant le régulateur de la myofibrillogéne.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dyskin%C3%A9sie_non_kin%C3%A9sig%C3%A9nique_paroxystique</t>
+          <t>Dyskinésie_non_kinésigénique_paroxystique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Incidence &amp; Prévalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Extrêmement rare
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dyskin%C3%A9sie_non_kin%C3%A9sig%C3%A9nique_paroxystique</t>
+          <t>Dyskinésie_non_kinésigénique_paroxystique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques cas sont sporadiques mais la dyskinésie non kinésigénique paroxystique familiale se transmet de façon dominante.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dyskin%C3%A9sie_non_kin%C3%A9sig%C3%A9nique_paroxystique</t>
+          <t>Dyskinésie_non_kinésigénique_paroxystique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +626,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 118800[1]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 118800
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 </t>
         </is>
       </c>
     </row>
